--- a/AVAV/AVAV.xlsx
+++ b/AVAV/AVAV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/AVAV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="907" documentId="11_8CF4D69C5F2EE1F9B8B7ED426BF3F5CBD55B276F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D50AA07-8DB1-4F63-AD8B-1A3DDEE1704C}"/>
+  <xr:revisionPtr revIDLastSave="919" documentId="11_8CF4D69C5F2EE1F9B8B7ED426BF3F5CBD55B276F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7916131-2C36-463A-912D-9BA7408D23CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3530" yWindow="2740" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3179,7 +3179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3228,11 +3228,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -3246,7 +3241,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3275,10 +3269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3401,39 +3391,38 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>124.32989999999999</v>
-    <v>74.91</v>
-    <v>0.5665</v>
-    <v>0.62</v>
-    <v>1.7767999999999999E-2</v>
-    <v>5.5669999999999999E-3</v>
-    <v>1.99</v>
+    <v>139.88</v>
+    <v>80.575000000000003</v>
+    <v>0.47499999999999998</v>
+    <v>2.1</v>
+    <v>-1.2239999999999999E-2</v>
+    <v>1.5261E-2</v>
+    <v>-1.71</v>
     <v>USD</v>
-    <v>AeroVironment, Inc. designs, develops, produces, delivers and supports a technologically advanced portfolio of intelligent, multi-domain robotic systems and related services for government agencies and businesses. The Company’s segments include Small Unmanned Aircraft Systems (SUAS), Tactical Missile Systems (TMS), Medium Unmanned Aircraft Systems (MUAS) and All other. The SUAS segment focuses primarily on products designed to operate reliably at low altitudes in a range of environmental conditions. The TMS segment focuses primarily on tube-launched aircraft that deploy with the push of a button. The MUAS segment focuses on designing, engineering, tools, and engineering unmanned aerial and aircraft systems, including airborne platforms, payloads and payload integration, ground control systems, and ground support equipment and other items and services. All other segments include High Altitude Pseudo-Satellite Unmanned Aircraft Systems (HAPS), MacCready Works and UGV.</v>
+    <v>AeroVironment, Inc. designs, develops, produces, delivers and supports a portfolio of intelligent, multi-domain robotic systems and related services for government agencies and businesses. It supplies unmanned systems (UMS), loitering munitions systems (LMS) and related services primarily to organizations within the United States Government and to international allied governments. Its segments include Unmanned Systems (UMS), Loitering Munition Systems (LMS) and MacCready Works (MW). The UMS segment focuses primarily on small, unmanned aircraft system (UAS) products, medium UAS products, and unmanned ground vehicles (UGV) products. The LMS segment focuses primarily on tube-launched aircraft that deploy with the push of a button and fly at higher speeds than small UAS products. It also includes customer-funded research and development programs. The MW segment focuses on research and development in the areas of robotics, sensors, software analytics, data intelligence and connectivity.</v>
     <v>1259</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>241 18Th Street South, Suite 415, ARLINGTON, VA, 22202 US</v>
-    <v>113.45269999999999</v>
+    <v>139.87</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45187.99834420078</v>
+    <v>45261.888897291406</v>
     <v>0</v>
-    <v>110.59</v>
-    <v>2944529280</v>
+    <v>136.52000000000001</v>
+    <v>3673037000</v>
     <v>AEROVIRONMENT, INC.</v>
     <v>AEROVIRONMENT, INC.</v>
-    <v>110.84</v>
-    <v>1507.973</v>
-    <v>111.38</v>
-    <v>112</v>
-    <v>113.99</v>
+    <v>137.1</v>
+    <v>137.61000000000001</v>
+    <v>139.71</v>
+    <v>138</v>
     <v>26290440</v>
     <v>AVAV</v>
     <v>AEROVIRONMENT, INC. (XNAS:AVAV)</v>
-    <v>281206</v>
-    <v>266480</v>
+    <v>219940</v>
+    <v>217056</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -3484,7 +3473,6 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
-    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -3504,7 +3492,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3536,7 +3524,6 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
-      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -3572,7 +3559,6 @@
     <spb s="3">
       <v>1</v>
       <v>2</v>
-      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -3598,9 +3584,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3628,7 +3614,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -4064,7 +4049,7 @@
       </c>
       <c r="B2" s="31" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>112</v>
+        <v>139.71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4082,7 +4067,7 @@
       </c>
       <c r="B4" s="31">
         <f>B2*B3</f>
-        <v>2944.5292800000002</v>
+        <v>3673.0373724000001</v>
       </c>
       <c r="C4" t="s">
         <v>860</v>
@@ -4168,11 +4153,11 @@
   <dimension ref="A1:BG197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4181,15 +4166,15 @@
     <col min="2" max="2" width="23.1796875" customWidth="1"/>
     <col min="3" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" style="44" customWidth="1"/>
     <col min="14" max="16" width="9.90625" customWidth="1"/>
-    <col min="17" max="17" width="9.90625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" style="44" customWidth="1"/>
     <col min="18" max="20" width="9.90625" customWidth="1"/>
-    <col min="21" max="21" width="9.90625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="9.90625" style="44" customWidth="1"/>
     <col min="22" max="24" width="9.90625" customWidth="1"/>
-    <col min="25" max="25" width="9.90625" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" style="44" customWidth="1"/>
     <col min="26" max="28" width="9.90625" customWidth="1"/>
-    <col min="29" max="29" width="9.90625" style="49" customWidth="1"/>
+    <col min="29" max="29" width="9.90625" style="44" customWidth="1"/>
     <col min="30" max="42" width="8.7265625" customWidth="1"/>
     <col min="49" max="52" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="9.7265625" bestFit="1" customWidth="1"/>
@@ -4205,7 +4190,7 @@
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="44" t="s">
         <v>905</v>
       </c>
       <c r="N1" t="s">
@@ -4217,46 +4202,46 @@
       <c r="P1" t="s">
         <v>904</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="44" t="s">
         <v>908</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" t="s">
         <v>909</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" t="s">
         <v>910</v>
       </c>
       <c r="T1" t="s">
         <v>903</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="44" t="s">
         <v>911</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" t="s">
         <v>912</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" t="s">
         <v>913</v>
       </c>
       <c r="X1" t="s">
         <v>902</v>
       </c>
-      <c r="Y1" s="49" t="s">
+      <c r="Y1" s="44" t="s">
         <v>914</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" t="s">
         <v>915</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" t="s">
         <v>916</v>
       </c>
       <c r="AB1" t="s">
         <v>901</v>
       </c>
-      <c r="AC1" s="49" t="s">
+      <c r="AC1" s="44" t="s">
         <v>917</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AD1" t="s">
         <v>915</v>
       </c>
     </row>
@@ -4264,7 +4249,7 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="45">
         <v>43713</v>
       </c>
       <c r="N2" s="38">
@@ -4276,7 +4261,7 @@
       <c r="P2" s="38">
         <v>44006</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="45">
         <v>44084</v>
       </c>
       <c r="R2" s="38">
@@ -4288,7 +4273,7 @@
       <c r="T2" s="38">
         <v>44376</v>
       </c>
-      <c r="U2" s="50">
+      <c r="U2" s="45">
         <v>44448</v>
       </c>
       <c r="V2" s="38">
@@ -4300,7 +4285,7 @@
       <c r="X2" s="38">
         <v>44741</v>
       </c>
-      <c r="Y2" s="50">
+      <c r="Y2" s="45">
         <v>44812</v>
       </c>
       <c r="Z2" s="38">
@@ -4312,7 +4297,7 @@
       <c r="AB2" s="38">
         <v>45105</v>
       </c>
-      <c r="AC2" s="50">
+      <c r="AC2" s="45">
         <v>45175</v>
       </c>
       <c r="AU2" s="38">
@@ -4350,44 +4335,44 @@
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="Q3" s="73">
+      <c r="M3" s="46"/>
+      <c r="Q3" s="67">
         <v>44042</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="68">
         <v>44133</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="68">
         <v>44224</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="68">
         <v>44316</v>
       </c>
-      <c r="U3" s="73">
+      <c r="U3" s="67">
         <v>44407</v>
       </c>
-      <c r="V3" s="74">
+      <c r="V3" s="68">
         <v>44498</v>
       </c>
-      <c r="W3" s="74">
+      <c r="W3" s="68">
         <v>44589</v>
       </c>
-      <c r="X3" s="74">
+      <c r="X3" s="68">
         <v>44681</v>
       </c>
-      <c r="Y3" s="73">
+      <c r="Y3" s="67">
         <v>44772</v>
       </c>
-      <c r="Z3" s="74">
+      <c r="Z3" s="68">
         <v>44863</v>
       </c>
-      <c r="AA3" s="74">
+      <c r="AA3" s="68">
         <v>44954</v>
       </c>
-      <c r="AB3" s="74">
+      <c r="AB3" s="68">
         <v>45046</v>
       </c>
-      <c r="AC3" s="73">
+      <c r="AC3" s="67">
         <v>45136</v>
       </c>
       <c r="AQ3" s="4">
@@ -4445,68 +4430,56 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="AC4" s="52"/>
-    </row>
-    <row r="5" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="M4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="AC4" s="47"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>898</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="AC5" s="49">
+      <c r="AC5" s="44">
         <v>109.22</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>899</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="AC6" s="49">
+      <c r="AC6" s="44">
         <v>83.55</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>900</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="AC7" s="49">
+      <c r="AC7" s="44">
         <v>93.65</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="AC8" s="53"/>
+      <c r="M8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="AC8" s="48"/>
     </row>
     <row r="9" spans="1:59" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="AC9" s="54"/>
+      <c r="M9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="AC9" s="49"/>
     </row>
     <row r="10" spans="1:59" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
@@ -4522,23 +4495,23 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="55"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
-      <c r="Q10" s="55"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
-      <c r="U10" s="55"/>
+      <c r="U10" s="50"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="55"/>
+      <c r="Y10" s="50"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="55"/>
+      <c r="AC10" s="50"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
@@ -4581,23 +4554,23 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="56"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="56"/>
+      <c r="U11" s="51"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="56"/>
+      <c r="Y11" s="51"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
-      <c r="AC11" s="56"/>
+      <c r="AC11" s="51"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
@@ -4675,23 +4648,23 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="56"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="56"/>
+      <c r="Q12" s="51"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
-      <c r="U12" s="56"/>
+      <c r="U12" s="51"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="56"/>
+      <c r="Y12" s="51"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="56"/>
+      <c r="AC12" s="51"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
@@ -4769,23 +4742,23 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="56"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="56"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
-      <c r="U13" s="56"/>
+      <c r="U13" s="51"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="56"/>
+      <c r="Y13" s="51"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
-      <c r="AC13" s="56"/>
+      <c r="AC13" s="51"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
@@ -4863,23 +4836,23 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="56"/>
+      <c r="Q14" s="51"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="56"/>
+      <c r="U14" s="51"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="56"/>
+      <c r="Y14" s="51"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="56"/>
+      <c r="AC14" s="51"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
@@ -4957,23 +4930,23 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
-      <c r="Q15" s="57"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="52"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="57"/>
+      <c r="Y15" s="52"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
-      <c r="AC15" s="57"/>
+      <c r="AC15" s="52"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
@@ -5051,23 +5024,23 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="56"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="56"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="56"/>
+      <c r="U16" s="51"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="56"/>
+      <c r="Y16" s="51"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="56"/>
+      <c r="AC16" s="51"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
@@ -5160,23 +5133,23 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="55"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
-      <c r="U17" s="55"/>
+      <c r="U17" s="50"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
-      <c r="Y17" s="55"/>
+      <c r="Y17" s="50"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
-      <c r="AC17" s="55"/>
+      <c r="AC17" s="50"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
@@ -5220,23 +5193,23 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="56"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="56"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="56"/>
+      <c r="U18" s="51"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="56"/>
+      <c r="Y18" s="51"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
-      <c r="AC18" s="56"/>
+      <c r="AC18" s="51"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
@@ -5314,23 +5287,23 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="56"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="56"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="56"/>
+      <c r="U19" s="51"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="56"/>
+      <c r="Y19" s="51"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="56"/>
+      <c r="AC19" s="51"/>
       <c r="AD19" s="15"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
@@ -5408,23 +5381,23 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="56"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="56"/>
+      <c r="U20" s="51"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="56"/>
+      <c r="Y20" s="51"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="56"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
@@ -5502,23 +5475,23 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="56"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="56"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
-      <c r="U21" s="56"/>
+      <c r="U21" s="51"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="56"/>
+      <c r="Y21" s="51"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="56"/>
+      <c r="AC21" s="51"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
@@ -5596,23 +5569,23 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="57"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="57"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="57"/>
+      <c r="U22" s="52"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="57"/>
+      <c r="Y22" s="52"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
-      <c r="AC22" s="57"/>
+      <c r="AC22" s="52"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
@@ -5690,23 +5663,23 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="56"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="56"/>
+      <c r="U23" s="51"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="56"/>
+      <c r="Y23" s="51"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="56"/>
+      <c r="AC23" s="51"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
@@ -5799,23 +5772,23 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="55"/>
+      <c r="Q24" s="50"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
-      <c r="U24" s="55"/>
+      <c r="U24" s="50"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
-      <c r="Y24" s="55"/>
+      <c r="Y24" s="50"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="55"/>
+      <c r="AC24" s="50"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
@@ -5859,23 +5832,23 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="56"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="56"/>
+      <c r="Q25" s="51"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="56"/>
+      <c r="U25" s="51"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
-      <c r="Y25" s="56"/>
+      <c r="Y25" s="51"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="56"/>
+      <c r="AC25" s="51"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
@@ -5953,23 +5926,23 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="56"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="56"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
-      <c r="U26" s="56"/>
+      <c r="U26" s="51"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
-      <c r="Y26" s="56"/>
+      <c r="Y26" s="51"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
-      <c r="AC26" s="56"/>
+      <c r="AC26" s="51"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
@@ -6047,23 +6020,23 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="56"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="56"/>
+      <c r="Q27" s="51"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
-      <c r="U27" s="56"/>
+      <c r="U27" s="51"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
-      <c r="Y27" s="56"/>
+      <c r="Y27" s="51"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
-      <c r="AC27" s="56"/>
+      <c r="AC27" s="51"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
@@ -6141,23 +6114,23 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="56"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="56"/>
+      <c r="Q28" s="51"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="56"/>
+      <c r="U28" s="51"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="56"/>
+      <c r="Y28" s="51"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
-      <c r="AC28" s="56"/>
+      <c r="AC28" s="51"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
@@ -6235,23 +6208,23 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="56"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="56"/>
+      <c r="Q29" s="51"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="56"/>
+      <c r="U29" s="51"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
-      <c r="Y29" s="56"/>
+      <c r="Y29" s="51"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
-      <c r="AC29" s="56"/>
+      <c r="AC29" s="51"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
@@ -6329,23 +6302,23 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="57"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="57"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="57"/>
+      <c r="U30" s="52"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
-      <c r="Y30" s="57"/>
+      <c r="Y30" s="52"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
-      <c r="AC30" s="57"/>
+      <c r="AC30" s="52"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
@@ -6423,23 +6396,23 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="56"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="56"/>
+      <c r="Q31" s="51"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
-      <c r="U31" s="56"/>
+      <c r="U31" s="51"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
-      <c r="Y31" s="56"/>
+      <c r="Y31" s="51"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
-      <c r="AC31" s="56"/>
+      <c r="AC31" s="51"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
@@ -6531,23 +6504,23 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="55"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="55"/>
+      <c r="Q32" s="50"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
-      <c r="U32" s="55"/>
+      <c r="U32" s="50"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
-      <c r="Y32" s="55"/>
+      <c r="Y32" s="50"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
       <c r="AB32" s="19"/>
-      <c r="AC32" s="55"/>
+      <c r="AC32" s="50"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="11"/>
       <c r="AF32" s="11"/>
@@ -6591,23 +6564,23 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="56"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="56"/>
+      <c r="Q33" s="51"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
-      <c r="U33" s="56"/>
+      <c r="U33" s="51"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
-      <c r="Y33" s="56"/>
+      <c r="Y33" s="51"/>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
-      <c r="AC33" s="56"/>
+      <c r="AC33" s="51"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
@@ -6685,23 +6658,23 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="56"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="56"/>
+      <c r="Q34" s="51"/>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="56"/>
+      <c r="U34" s="51"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
-      <c r="Y34" s="56"/>
+      <c r="Y34" s="51"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
-      <c r="AC34" s="56"/>
+      <c r="AC34" s="51"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
@@ -6779,23 +6752,23 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="56"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="56"/>
+      <c r="Q35" s="51"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
-      <c r="U35" s="56"/>
+      <c r="U35" s="51"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
-      <c r="Y35" s="56"/>
+      <c r="Y35" s="51"/>
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
-      <c r="AC35" s="56"/>
+      <c r="AC35" s="51"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
@@ -6873,23 +6846,23 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="56"/>
+      <c r="M36" s="51"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="56"/>
+      <c r="Q36" s="51"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
-      <c r="U36" s="56"/>
+      <c r="U36" s="51"/>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
-      <c r="Y36" s="56"/>
+      <c r="Y36" s="51"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
-      <c r="AC36" s="56"/>
+      <c r="AC36" s="51"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
@@ -6967,23 +6940,23 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="56"/>
+      <c r="M37" s="51"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
-      <c r="Q37" s="56"/>
+      <c r="Q37" s="51"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
-      <c r="U37" s="56"/>
+      <c r="U37" s="51"/>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
-      <c r="Y37" s="56"/>
+      <c r="Y37" s="51"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
-      <c r="AC37" s="56"/>
+      <c r="AC37" s="51"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
@@ -7061,23 +7034,23 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
-      <c r="M38" s="57"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
-      <c r="Q38" s="57"/>
+      <c r="Q38" s="52"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
-      <c r="U38" s="57"/>
+      <c r="U38" s="52"/>
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
-      <c r="Y38" s="57"/>
+      <c r="Y38" s="52"/>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
-      <c r="AC38" s="57"/>
+      <c r="AC38" s="52"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
@@ -7155,23 +7128,23 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="56"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="56"/>
+      <c r="Q39" s="51"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
-      <c r="U39" s="56"/>
+      <c r="U39" s="51"/>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
-      <c r="Y39" s="56"/>
+      <c r="Y39" s="51"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
-      <c r="AC39" s="56"/>
+      <c r="AC39" s="51"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
@@ -7264,23 +7237,23 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="58"/>
+      <c r="M40" s="53"/>
       <c r="N40" s="33"/>
       <c r="O40" s="33"/>
       <c r="P40" s="33"/>
-      <c r="Q40" s="58"/>
+      <c r="Q40" s="53"/>
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
-      <c r="U40" s="58"/>
+      <c r="U40" s="53"/>
       <c r="V40" s="33"/>
       <c r="W40" s="33"/>
       <c r="X40" s="33"/>
-      <c r="Y40" s="58"/>
+      <c r="Y40" s="53"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
-      <c r="AC40" s="58"/>
+      <c r="AC40" s="53"/>
       <c r="AD40" s="33"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
@@ -7324,23 +7297,23 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="56"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
-      <c r="Q41" s="56"/>
+      <c r="Q41" s="51"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
-      <c r="U41" s="56"/>
+      <c r="U41" s="51"/>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
-      <c r="Y41" s="56"/>
+      <c r="Y41" s="51"/>
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
-      <c r="AC41" s="56"/>
+      <c r="AC41" s="51"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
@@ -7418,23 +7391,23 @@
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="56"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="56"/>
+      <c r="Q42" s="51"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
-      <c r="U42" s="56"/>
+      <c r="U42" s="51"/>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
-      <c r="Y42" s="56"/>
+      <c r="Y42" s="51"/>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="51"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
@@ -7512,23 +7485,23 @@
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="56"/>
+      <c r="M43" s="51"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="56"/>
+      <c r="Q43" s="51"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
-      <c r="U43" s="56"/>
+      <c r="U43" s="51"/>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
       <c r="X43" s="15"/>
-      <c r="Y43" s="56"/>
+      <c r="Y43" s="51"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
-      <c r="AC43" s="56"/>
+      <c r="AC43" s="51"/>
       <c r="AD43" s="15"/>
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
@@ -7606,23 +7579,23 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="56"/>
+      <c r="M44" s="51"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
-      <c r="Q44" s="56"/>
+      <c r="Q44" s="51"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
-      <c r="U44" s="56"/>
+      <c r="U44" s="51"/>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
       <c r="X44" s="15"/>
-      <c r="Y44" s="56"/>
+      <c r="Y44" s="51"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
-      <c r="AC44" s="56"/>
+      <c r="AC44" s="51"/>
       <c r="AD44" s="15"/>
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
@@ -7698,23 +7671,23 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="56"/>
+      <c r="M45" s="51"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-      <c r="Q45" s="56"/>
+      <c r="Q45" s="51"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
-      <c r="U45" s="56"/>
+      <c r="U45" s="51"/>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
       <c r="X45" s="15"/>
-      <c r="Y45" s="56"/>
+      <c r="Y45" s="51"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
       <c r="AB45" s="15"/>
-      <c r="AC45" s="56"/>
+      <c r="AC45" s="51"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
@@ -7792,23 +7765,23 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
-      <c r="M46" s="57"/>
+      <c r="M46" s="52"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
-      <c r="Q46" s="57"/>
+      <c r="Q46" s="52"/>
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
-      <c r="U46" s="57"/>
+      <c r="U46" s="52"/>
       <c r="V46" s="17"/>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
-      <c r="Y46" s="57"/>
+      <c r="Y46" s="52"/>
       <c r="Z46" s="17"/>
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
-      <c r="AC46" s="57"/>
+      <c r="AC46" s="52"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
@@ -7886,23 +7859,23 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="56"/>
+      <c r="M47" s="51"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
-      <c r="Q47" s="56"/>
+      <c r="Q47" s="51"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
-      <c r="U47" s="56"/>
+      <c r="U47" s="51"/>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
-      <c r="Y47" s="56"/>
+      <c r="Y47" s="51"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="15"/>
-      <c r="AC47" s="56"/>
+      <c r="AC47" s="51"/>
       <c r="AD47" s="15"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
@@ -7995,23 +7968,23 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="59"/>
+      <c r="M48" s="54"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="59"/>
+      <c r="Q48" s="54"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="59"/>
+      <c r="U48" s="54"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="59"/>
+      <c r="Y48" s="54"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="59"/>
+      <c r="AC48" s="54"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
@@ -8055,23 +8028,23 @@
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
-      <c r="M49" s="60"/>
+      <c r="M49" s="55"/>
       <c r="N49" s="27"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-      <c r="Q49" s="60"/>
+      <c r="Q49" s="55"/>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
-      <c r="U49" s="60"/>
+      <c r="U49" s="55"/>
       <c r="V49" s="27"/>
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
-      <c r="Y49" s="60"/>
+      <c r="Y49" s="55"/>
       <c r="Z49" s="27"/>
       <c r="AA49" s="27"/>
       <c r="AB49" s="27"/>
-      <c r="AC49" s="60"/>
+      <c r="AC49" s="55"/>
       <c r="AD49" s="27"/>
       <c r="AE49" s="28"/>
       <c r="AF49" s="28"/>
@@ -8163,23 +8136,23 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="56"/>
+      <c r="M50" s="51"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
-      <c r="Q50" s="56"/>
+      <c r="Q50" s="51"/>
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
-      <c r="U50" s="56"/>
+      <c r="U50" s="51"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
-      <c r="Y50" s="56"/>
+      <c r="Y50" s="51"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
-      <c r="AC50" s="56"/>
+      <c r="AC50" s="51"/>
       <c r="AD50" s="15"/>
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
@@ -8271,23 +8244,23 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="M51" s="56"/>
+      <c r="M51" s="51"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
-      <c r="Q51" s="56"/>
+      <c r="Q51" s="51"/>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
-      <c r="U51" s="56"/>
+      <c r="U51" s="51"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
-      <c r="Y51" s="56"/>
+      <c r="Y51" s="51"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
-      <c r="AC51" s="56"/>
+      <c r="AC51" s="51"/>
       <c r="AD51" s="15"/>
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
@@ -8379,23 +8352,23 @@
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
-      <c r="M52" s="56"/>
+      <c r="M52" s="51"/>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
-      <c r="Q52" s="56"/>
+      <c r="Q52" s="51"/>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
-      <c r="U52" s="56"/>
+      <c r="U52" s="51"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
-      <c r="Y52" s="56"/>
+      <c r="Y52" s="51"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="56"/>
+      <c r="AC52" s="51"/>
       <c r="AD52" s="15"/>
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
@@ -8487,23 +8460,23 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
-      <c r="M53" s="57"/>
+      <c r="M53" s="52"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
-      <c r="Q53" s="57"/>
+      <c r="Q53" s="52"/>
       <c r="R53" s="17"/>
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
-      <c r="U53" s="57"/>
+      <c r="U53" s="52"/>
       <c r="V53" s="17"/>
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
-      <c r="Y53" s="57"/>
+      <c r="Y53" s="52"/>
       <c r="Z53" s="17"/>
       <c r="AA53" s="17"/>
       <c r="AB53" s="17"/>
-      <c r="AC53" s="57"/>
+      <c r="AC53" s="52"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
@@ -8595,23 +8568,23 @@
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
-      <c r="M54" s="60"/>
+      <c r="M54" s="55"/>
       <c r="N54" s="27"/>
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
-      <c r="Q54" s="60"/>
+      <c r="Q54" s="55"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
-      <c r="U54" s="60"/>
+      <c r="U54" s="55"/>
       <c r="V54" s="27"/>
       <c r="W54" s="27"/>
       <c r="X54" s="27"/>
-      <c r="Y54" s="60"/>
+      <c r="Y54" s="55"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
       <c r="AB54" s="27"/>
-      <c r="AC54" s="60"/>
+      <c r="AC54" s="55"/>
       <c r="AD54" s="27"/>
       <c r="AE54" s="28"/>
       <c r="AF54" s="28"/>
@@ -8701,23 +8674,23 @@
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
       <c r="L55" s="27"/>
-      <c r="M55" s="60"/>
+      <c r="M55" s="55"/>
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="60"/>
+      <c r="Q55" s="55"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
-      <c r="U55" s="60"/>
+      <c r="U55" s="55"/>
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
       <c r="X55" s="27"/>
-      <c r="Y55" s="60"/>
+      <c r="Y55" s="55"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
       <c r="AB55" s="27"/>
-      <c r="AC55" s="60"/>
+      <c r="AC55" s="55"/>
       <c r="AD55" s="27"/>
       <c r="AE55" s="28"/>
       <c r="AF55" s="28"/>
@@ -8763,23 +8736,23 @@
       <c r="J56" s="41"/>
       <c r="K56" s="41"/>
       <c r="L56" s="41"/>
-      <c r="M56" s="61"/>
+      <c r="M56" s="56"/>
       <c r="N56" s="41"/>
       <c r="O56" s="41"/>
       <c r="P56" s="41"/>
-      <c r="Q56" s="61"/>
+      <c r="Q56" s="56"/>
       <c r="R56" s="41"/>
       <c r="S56" s="41"/>
       <c r="T56" s="41"/>
-      <c r="U56" s="61"/>
+      <c r="U56" s="56"/>
       <c r="V56" s="41"/>
       <c r="W56" s="41"/>
       <c r="X56" s="41"/>
-      <c r="Y56" s="61"/>
+      <c r="Y56" s="56"/>
       <c r="Z56" s="41"/>
       <c r="AA56" s="41"/>
       <c r="AB56" s="41"/>
-      <c r="AC56" s="61"/>
+      <c r="AC56" s="56"/>
       <c r="AD56" s="41"/>
       <c r="AE56" s="42"/>
       <c r="AF56" s="42"/>
@@ -8825,23 +8798,23 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-      <c r="M57" s="56"/>
+      <c r="M57" s="51"/>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
-      <c r="Q57" s="56"/>
+      <c r="Q57" s="51"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
-      <c r="U57" s="56"/>
+      <c r="U57" s="51"/>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
       <c r="X57" s="15"/>
-      <c r="Y57" s="56"/>
+      <c r="Y57" s="51"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
       <c r="AB57" s="15"/>
-      <c r="AC57" s="56"/>
+      <c r="AC57" s="51"/>
       <c r="AD57" s="15"/>
       <c r="AE57" s="28"/>
       <c r="AF57" s="28"/>
@@ -8921,23 +8894,23 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
-      <c r="M58" s="56"/>
+      <c r="M58" s="51"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
-      <c r="Q58" s="56"/>
+      <c r="Q58" s="51"/>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
-      <c r="U58" s="56"/>
+      <c r="U58" s="51"/>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
-      <c r="Y58" s="56"/>
+      <c r="Y58" s="51"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
-      <c r="AC58" s="56"/>
+      <c r="AC58" s="51"/>
       <c r="AD58" s="15"/>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
@@ -9017,23 +8990,23 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="56"/>
+      <c r="M59" s="51"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
-      <c r="Q59" s="56"/>
+      <c r="Q59" s="51"/>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
-      <c r="U59" s="56"/>
+      <c r="U59" s="51"/>
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
       <c r="X59" s="15"/>
-      <c r="Y59" s="56"/>
+      <c r="Y59" s="51"/>
       <c r="Z59" s="15"/>
       <c r="AA59" s="15"/>
       <c r="AB59" s="15"/>
-      <c r="AC59" s="56"/>
+      <c r="AC59" s="51"/>
       <c r="AD59" s="15"/>
       <c r="AE59" s="9"/>
       <c r="AF59" s="9"/>
@@ -9113,23 +9086,23 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-      <c r="M60" s="56"/>
+      <c r="M60" s="51"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
-      <c r="Q60" s="56"/>
+      <c r="Q60" s="51"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
-      <c r="U60" s="56"/>
+      <c r="U60" s="51"/>
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
-      <c r="Y60" s="56"/>
+      <c r="Y60" s="51"/>
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
-      <c r="AC60" s="56"/>
+      <c r="AC60" s="51"/>
       <c r="AD60" s="15"/>
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
@@ -9209,23 +9182,23 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
-      <c r="M61" s="57"/>
+      <c r="M61" s="52"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
-      <c r="Q61" s="57"/>
+      <c r="Q61" s="52"/>
       <c r="R61" s="17"/>
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
-      <c r="U61" s="57"/>
+      <c r="U61" s="52"/>
       <c r="V61" s="17"/>
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
-      <c r="Y61" s="57"/>
+      <c r="Y61" s="52"/>
       <c r="Z61" s="17"/>
       <c r="AA61" s="17"/>
       <c r="AB61" s="17"/>
-      <c r="AC61" s="57"/>
+      <c r="AC61" s="52"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="10"/>
@@ -9305,23 +9278,23 @@
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
       <c r="L62" s="27"/>
-      <c r="M62" s="60"/>
+      <c r="M62" s="55"/>
       <c r="N62" s="27"/>
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
-      <c r="Q62" s="60"/>
+      <c r="Q62" s="55"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
       <c r="T62" s="27"/>
-      <c r="U62" s="60"/>
+      <c r="U62" s="55"/>
       <c r="V62" s="27"/>
       <c r="W62" s="27"/>
       <c r="X62" s="27"/>
-      <c r="Y62" s="60"/>
+      <c r="Y62" s="55"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
       <c r="AB62" s="27"/>
-      <c r="AC62" s="60"/>
+      <c r="AC62" s="55"/>
       <c r="AD62" s="27"/>
       <c r="AE62" s="28"/>
       <c r="AF62" s="28"/>
@@ -9402,90 +9375,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:59" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="44" t="s">
+    <row r="63" spans="2:59" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="43" t="s">
         <v>890</v>
       </c>
-      <c r="M63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AE63" s="45"/>
-      <c r="AF63" s="45"/>
-      <c r="AG63" s="45"/>
-      <c r="AH63" s="45"/>
-      <c r="AI63" s="45"/>
-      <c r="AJ63" s="45"/>
-      <c r="AK63" s="45"/>
-      <c r="AL63" s="45"/>
-      <c r="AM63" s="45"/>
-      <c r="AN63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AO63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AP63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AQ63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AR63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AS63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AT63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AU63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AV63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AW63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AX63" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="AY63" s="44">
+      <c r="M63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="AC63" s="57"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AO63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AP63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AQ63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AR63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AS63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AT63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AU63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AV63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AW63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AX63" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="AY63" s="43">
         <f t="shared" ref="AY63:BG63" si="32">AY57/AY62</f>
         <v>0.62413942121419841</v>
       </c>
-      <c r="AZ63" s="44">
+      <c r="AZ63" s="43">
         <f t="shared" si="32"/>
         <v>0.58279399504890639</v>
       </c>
-      <c r="BA63" s="44">
+      <c r="BA63" s="43">
         <f t="shared" si="32"/>
         <v>0.61500261369576581</v>
       </c>
-      <c r="BB63" s="44">
+      <c r="BB63" s="43">
         <f t="shared" si="32"/>
         <v>0.53929455021059225</v>
       </c>
-      <c r="BC63" s="44">
+      <c r="BC63" s="43">
         <f t="shared" si="32"/>
         <v>0.36437674954044214</v>
       </c>
-      <c r="BD63" s="44">
+      <c r="BD63" s="43">
         <f t="shared" si="32"/>
         <v>0.43273343496085365</v>
       </c>
-      <c r="BE63" s="44" t="e">
+      <c r="BE63" s="43" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF63" s="44" t="e">
+      <c r="BF63" s="43" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG63" s="44" t="e">
+      <c r="BG63" s="43" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9494,11 +9467,11 @@
       <c r="B64" s="43" t="s">
         <v>891</v>
       </c>
-      <c r="M64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="U64" s="63"/>
-      <c r="Y64" s="63"/>
-      <c r="AC64" s="63"/>
+      <c r="M64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="AC64" s="57"/>
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="9"/>
@@ -9582,11 +9555,11 @@
       <c r="B65" s="43" t="s">
         <v>894</v>
       </c>
-      <c r="M65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="U65" s="63"/>
-      <c r="Y65" s="63"/>
-      <c r="AC65" s="63"/>
+      <c r="M65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="Y65" s="57"/>
+      <c r="AC65" s="57"/>
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
       <c r="AG65" s="9"/>
@@ -9670,11 +9643,11 @@
       <c r="B66" s="43" t="s">
         <v>892</v>
       </c>
-      <c r="M66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="U66" s="63"/>
-      <c r="Y66" s="63"/>
-      <c r="AC66" s="63"/>
+      <c r="M66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="AC66" s="57"/>
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="9"/>
@@ -9758,11 +9731,11 @@
       <c r="B67" s="43" t="s">
         <v>893</v>
       </c>
-      <c r="M67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="U67" s="63"/>
-      <c r="Y67" s="63"/>
-      <c r="AC67" s="63"/>
+      <c r="M67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="Y67" s="57"/>
+      <c r="AC67" s="57"/>
       <c r="AE67" s="10"/>
       <c r="AF67" s="10"/>
       <c r="AG67" s="10"/>
@@ -9856,23 +9829,23 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
-      <c r="M68" s="54"/>
+      <c r="M68" s="49"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
-      <c r="Q68" s="54"/>
+      <c r="Q68" s="49"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
-      <c r="U68" s="54"/>
+      <c r="U68" s="49"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
-      <c r="Y68" s="54"/>
+      <c r="Y68" s="49"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
-      <c r="AC68" s="54"/>
+      <c r="AC68" s="49"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="26"/>
       <c r="AF68" s="26"/>
@@ -9916,23 +9889,23 @@
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
-      <c r="M69" s="56"/>
+      <c r="M69" s="51"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
-      <c r="Q69" s="56"/>
+      <c r="Q69" s="51"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
-      <c r="U69" s="56"/>
+      <c r="U69" s="51"/>
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
-      <c r="Y69" s="56"/>
+      <c r="Y69" s="51"/>
       <c r="Z69" s="15"/>
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
-      <c r="AC69" s="56"/>
+      <c r="AC69" s="51"/>
       <c r="AD69" s="15"/>
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
@@ -10010,23 +9983,23 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
-      <c r="M70" s="56"/>
+      <c r="M70" s="51"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
-      <c r="Q70" s="56"/>
+      <c r="Q70" s="51"/>
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
       <c r="T70" s="15"/>
-      <c r="U70" s="56"/>
+      <c r="U70" s="51"/>
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
       <c r="X70" s="15"/>
-      <c r="Y70" s="56"/>
+      <c r="Y70" s="51"/>
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
-      <c r="AC70" s="56"/>
+      <c r="AC70" s="51"/>
       <c r="AD70" s="15"/>
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
@@ -10104,23 +10077,23 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
-      <c r="M71" s="57"/>
+      <c r="M71" s="52"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
-      <c r="Q71" s="57"/>
+      <c r="Q71" s="52"/>
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
       <c r="T71" s="17"/>
-      <c r="U71" s="57"/>
+      <c r="U71" s="52"/>
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
-      <c r="Y71" s="57"/>
+      <c r="Y71" s="52"/>
       <c r="Z71" s="17"/>
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
-      <c r="AC71" s="57"/>
+      <c r="AC71" s="52"/>
       <c r="AD71" s="17"/>
       <c r="AE71" s="10"/>
       <c r="AF71" s="10"/>
@@ -10198,23 +10171,23 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
-      <c r="M72" s="56"/>
+      <c r="M72" s="51"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
-      <c r="Q72" s="56"/>
+      <c r="Q72" s="51"/>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
       <c r="T72" s="15"/>
-      <c r="U72" s="56"/>
+      <c r="U72" s="51"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
-      <c r="Y72" s="56"/>
+      <c r="Y72" s="51"/>
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
-      <c r="AC72" s="56"/>
+      <c r="AC72" s="51"/>
       <c r="AD72" s="15"/>
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
@@ -10307,23 +10280,23 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
-      <c r="M73" s="56"/>
+      <c r="M73" s="51"/>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
-      <c r="Q73" s="56"/>
+      <c r="Q73" s="51"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
-      <c r="U73" s="56"/>
+      <c r="U73" s="51"/>
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
-      <c r="Y73" s="56"/>
+      <c r="Y73" s="51"/>
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
       <c r="AB73" s="15"/>
-      <c r="AC73" s="56"/>
+      <c r="AC73" s="51"/>
       <c r="AD73" s="15"/>
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
@@ -10367,23 +10340,23 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="54"/>
+      <c r="M74" s="49"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
-      <c r="Q74" s="54"/>
+      <c r="Q74" s="49"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
-      <c r="U74" s="54"/>
+      <c r="U74" s="49"/>
       <c r="V74" s="13"/>
       <c r="W74" s="13"/>
       <c r="X74" s="13"/>
-      <c r="Y74" s="54"/>
+      <c r="Y74" s="49"/>
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
       <c r="AB74" s="13"/>
-      <c r="AC74" s="54"/>
+      <c r="AC74" s="49"/>
       <c r="AD74" s="13"/>
       <c r="AE74" s="26"/>
       <c r="AF74" s="26"/>
@@ -10427,23 +10400,23 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
-      <c r="M75" s="56"/>
+      <c r="M75" s="51"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
-      <c r="Q75" s="56"/>
+      <c r="Q75" s="51"/>
       <c r="R75" s="15"/>
       <c r="S75" s="15"/>
       <c r="T75" s="15"/>
-      <c r="U75" s="56"/>
+      <c r="U75" s="51"/>
       <c r="V75" s="15"/>
       <c r="W75" s="15"/>
       <c r="X75" s="15"/>
-      <c r="Y75" s="56"/>
+      <c r="Y75" s="51"/>
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
       <c r="AB75" s="15"/>
-      <c r="AC75" s="56"/>
+      <c r="AC75" s="51"/>
       <c r="AD75" s="15"/>
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
@@ -10521,23 +10494,23 @@
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
-      <c r="M76" s="57"/>
+      <c r="M76" s="52"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
-      <c r="Q76" s="57"/>
+      <c r="Q76" s="52"/>
       <c r="R76" s="17"/>
       <c r="S76" s="17"/>
       <c r="T76" s="17"/>
-      <c r="U76" s="57"/>
+      <c r="U76" s="52"/>
       <c r="V76" s="17"/>
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
-      <c r="Y76" s="57"/>
+      <c r="Y76" s="52"/>
       <c r="Z76" s="17"/>
       <c r="AA76" s="17"/>
       <c r="AB76" s="17"/>
-      <c r="AC76" s="57"/>
+      <c r="AC76" s="52"/>
       <c r="AD76" s="17"/>
       <c r="AE76" s="10"/>
       <c r="AF76" s="10"/>
@@ -10615,23 +10588,23 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
-      <c r="M77" s="56"/>
+      <c r="M77" s="51"/>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
-      <c r="Q77" s="56"/>
+      <c r="Q77" s="51"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
-      <c r="U77" s="56"/>
+      <c r="U77" s="51"/>
       <c r="V77" s="15"/>
       <c r="W77" s="15"/>
       <c r="X77" s="15"/>
-      <c r="Y77" s="56"/>
+      <c r="Y77" s="51"/>
       <c r="Z77" s="15"/>
       <c r="AA77" s="15"/>
       <c r="AB77" s="15"/>
-      <c r="AC77" s="56"/>
+      <c r="AC77" s="51"/>
       <c r="AD77" s="15"/>
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
@@ -10724,23 +10697,23 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
-      <c r="M78" s="56"/>
+      <c r="M78" s="51"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
-      <c r="Q78" s="56"/>
+      <c r="Q78" s="51"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
       <c r="T78" s="15"/>
-      <c r="U78" s="56"/>
+      <c r="U78" s="51"/>
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
       <c r="X78" s="15"/>
-      <c r="Y78" s="56"/>
+      <c r="Y78" s="51"/>
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
-      <c r="AC78" s="56"/>
+      <c r="AC78" s="51"/>
       <c r="AD78" s="15"/>
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
@@ -10784,23 +10757,23 @@
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
-      <c r="M79" s="54"/>
+      <c r="M79" s="49"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
-      <c r="Q79" s="54"/>
+      <c r="Q79" s="49"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
-      <c r="U79" s="54"/>
+      <c r="U79" s="49"/>
       <c r="V79" s="13"/>
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
-      <c r="Y79" s="54"/>
+      <c r="Y79" s="49"/>
       <c r="Z79" s="13"/>
       <c r="AA79" s="13"/>
       <c r="AB79" s="13"/>
-      <c r="AC79" s="54"/>
+      <c r="AC79" s="49"/>
       <c r="AD79" s="13"/>
       <c r="AE79" s="25"/>
       <c r="AF79" s="25"/>
@@ -10844,23 +10817,23 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
-      <c r="M80" s="56"/>
+      <c r="M80" s="51"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
-      <c r="Q80" s="56"/>
+      <c r="Q80" s="51"/>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
       <c r="T80" s="15"/>
-      <c r="U80" s="56"/>
+      <c r="U80" s="51"/>
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
       <c r="X80" s="15"/>
-      <c r="Y80" s="56"/>
+      <c r="Y80" s="51"/>
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
-      <c r="AC80" s="56"/>
+      <c r="AC80" s="51"/>
       <c r="AD80" s="15"/>
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
@@ -10938,23 +10911,23 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
-      <c r="M81" s="57"/>
+      <c r="M81" s="52"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
-      <c r="Q81" s="57"/>
+      <c r="Q81" s="52"/>
       <c r="R81" s="17"/>
       <c r="S81" s="17"/>
       <c r="T81" s="17"/>
-      <c r="U81" s="57"/>
+      <c r="U81" s="52"/>
       <c r="V81" s="17"/>
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
-      <c r="Y81" s="57"/>
+      <c r="Y81" s="52"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="17"/>
       <c r="AB81" s="17"/>
-      <c r="AC81" s="57"/>
+      <c r="AC81" s="52"/>
       <c r="AD81" s="17"/>
       <c r="AE81" s="10"/>
       <c r="AF81" s="10"/>
@@ -11032,23 +11005,23 @@
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
-      <c r="M82" s="56"/>
+      <c r="M82" s="51"/>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
-      <c r="Q82" s="56"/>
+      <c r="Q82" s="51"/>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
       <c r="T82" s="15"/>
-      <c r="U82" s="56"/>
+      <c r="U82" s="51"/>
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
       <c r="X82" s="15"/>
-      <c r="Y82" s="56"/>
+      <c r="Y82" s="51"/>
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
-      <c r="AC82" s="56"/>
+      <c r="AC82" s="51"/>
       <c r="AD82" s="15"/>
       <c r="AE82" s="9"/>
       <c r="AF82" s="9"/>
@@ -11141,23 +11114,23 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
-      <c r="M83" s="56"/>
+      <c r="M83" s="51"/>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15"/>
-      <c r="Q83" s="56"/>
+      <c r="Q83" s="51"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
       <c r="T83" s="15"/>
-      <c r="U83" s="56"/>
+      <c r="U83" s="51"/>
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
       <c r="X83" s="15"/>
-      <c r="Y83" s="56"/>
+      <c r="Y83" s="51"/>
       <c r="Z83" s="15"/>
       <c r="AA83" s="15"/>
       <c r="AB83" s="15"/>
-      <c r="AC83" s="56"/>
+      <c r="AC83" s="51"/>
       <c r="AD83" s="15"/>
       <c r="AE83" s="9"/>
       <c r="AF83" s="9"/>
@@ -11199,23 +11172,23 @@
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
-      <c r="M84" s="56"/>
+      <c r="M84" s="51"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15"/>
-      <c r="Q84" s="56"/>
+      <c r="Q84" s="51"/>
       <c r="R84" s="15"/>
       <c r="S84" s="15"/>
       <c r="T84" s="15"/>
-      <c r="U84" s="56"/>
+      <c r="U84" s="51"/>
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
       <c r="X84" s="15"/>
-      <c r="Y84" s="56"/>
+      <c r="Y84" s="51"/>
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
-      <c r="AC84" s="56"/>
+      <c r="AC84" s="51"/>
       <c r="AD84" s="15"/>
       <c r="AE84" s="9"/>
       <c r="AF84" s="9"/>
@@ -11259,23 +11232,23 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="52"/>
+      <c r="M85" s="47"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="52"/>
+      <c r="Q85" s="47"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
-      <c r="U85" s="52"/>
+      <c r="U85" s="47"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
-      <c r="Y85" s="52"/>
+      <c r="Y85" s="47"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
-      <c r="AC85" s="52"/>
+      <c r="AC85" s="47"/>
       <c r="AD85" s="3"/>
     </row>
     <row r="86" spans="2:59" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -11292,34 +11265,34 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="59"/>
+      <c r="M86" s="54"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
-      <c r="Q86" s="59"/>
+      <c r="Q86" s="54"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
-      <c r="U86" s="59"/>
+      <c r="U86" s="54"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
-      <c r="Y86" s="59"/>
+      <c r="Y86" s="54"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
-      <c r="AC86" s="59"/>
+      <c r="AC86" s="54"/>
       <c r="AD86" s="6"/>
     </row>
     <row r="87" spans="2:59" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M87" s="64"/>
-      <c r="Q87" s="64"/>
-      <c r="U87" s="64"/>
-      <c r="Y87" s="64"/>
-      <c r="AC87" s="64"/>
+      <c r="M87" s="58"/>
+      <c r="Q87" s="58"/>
+      <c r="U87" s="58"/>
+      <c r="Y87" s="58"/>
+      <c r="AC87" s="58"/>
       <c r="AW87" s="9">
         <v>162032</v>
       </c>
@@ -11349,11 +11322,11 @@
       <c r="B88" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="U88" s="65"/>
-      <c r="Y88" s="65"/>
-      <c r="AC88" s="65"/>
+      <c r="M88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="AC88" s="59"/>
       <c r="AW88" s="10">
         <v>71706</v>
       </c>
@@ -11383,11 +11356,11 @@
       <c r="B89" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M89" s="66"/>
-      <c r="Q89" s="66"/>
-      <c r="U89" s="66"/>
-      <c r="Y89" s="66"/>
-      <c r="AC89" s="66"/>
+      <c r="M89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="AC89" s="60"/>
       <c r="AN89" s="28">
         <f t="shared" ref="AN89" si="52">SUM(AN87:AN88)</f>
         <v>0</v>
@@ -11483,34 +11456,34 @@
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
-      <c r="M90" s="67"/>
+      <c r="M90" s="61"/>
       <c r="N90" s="34"/>
       <c r="O90" s="34"/>
       <c r="P90" s="34"/>
-      <c r="Q90" s="67"/>
+      <c r="Q90" s="61"/>
       <c r="R90" s="34"/>
       <c r="S90" s="34"/>
       <c r="T90" s="34"/>
-      <c r="U90" s="67"/>
+      <c r="U90" s="61"/>
       <c r="V90" s="34"/>
       <c r="W90" s="34"/>
       <c r="X90" s="34"/>
-      <c r="Y90" s="67"/>
+      <c r="Y90" s="61"/>
       <c r="Z90" s="34"/>
       <c r="AA90" s="34"/>
       <c r="AB90" s="34"/>
-      <c r="AC90" s="67"/>
+      <c r="AC90" s="61"/>
       <c r="AD90" s="34"/>
     </row>
     <row r="91" spans="2:59" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M91" s="64"/>
-      <c r="Q91" s="64"/>
-      <c r="U91" s="64"/>
-      <c r="Y91" s="64"/>
-      <c r="AC91" s="64"/>
+      <c r="M91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="U91" s="58"/>
+      <c r="Y91" s="58"/>
+      <c r="AC91" s="58"/>
       <c r="AW91" s="9">
         <v>85089</v>
       </c>
@@ -11540,11 +11513,11 @@
       <c r="B92" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M92" s="65"/>
-      <c r="Q92" s="65"/>
-      <c r="U92" s="65"/>
-      <c r="Y92" s="65"/>
-      <c r="AC92" s="65"/>
+      <c r="M92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="U92" s="59"/>
+      <c r="Y92" s="59"/>
+      <c r="AC92" s="59"/>
       <c r="AW92" s="10">
         <v>43075</v>
       </c>
@@ -11574,11 +11547,11 @@
       <c r="B93" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M93" s="64"/>
-      <c r="Q93" s="64"/>
-      <c r="U93" s="64"/>
-      <c r="Y93" s="64"/>
-      <c r="AC93" s="64"/>
+      <c r="M93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="U93" s="58"/>
+      <c r="Y93" s="58"/>
+      <c r="AC93" s="58"/>
       <c r="AN93" s="9">
         <f t="shared" ref="AN93" si="60">SUM(AN91:AN92)</f>
         <v>0</v>
@@ -11674,34 +11647,34 @@
       <c r="J94" s="34"/>
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
-      <c r="M94" s="67"/>
+      <c r="M94" s="61"/>
       <c r="N94" s="34"/>
       <c r="O94" s="34"/>
       <c r="P94" s="34"/>
-      <c r="Q94" s="67"/>
+      <c r="Q94" s="61"/>
       <c r="R94" s="34"/>
       <c r="S94" s="34"/>
       <c r="T94" s="34"/>
-      <c r="U94" s="67"/>
+      <c r="U94" s="61"/>
       <c r="V94" s="34"/>
       <c r="W94" s="34"/>
       <c r="X94" s="34"/>
-      <c r="Y94" s="67"/>
+      <c r="Y94" s="61"/>
       <c r="Z94" s="34"/>
       <c r="AA94" s="34"/>
       <c r="AB94" s="34"/>
-      <c r="AC94" s="67"/>
+      <c r="AC94" s="61"/>
       <c r="AD94" s="34"/>
     </row>
     <row r="95" spans="2:59" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="U95" s="64"/>
-      <c r="Y95" s="64"/>
-      <c r="AC95" s="64"/>
+      <c r="M95" s="58"/>
+      <c r="Q95" s="58"/>
+      <c r="U95" s="58"/>
+      <c r="Y95" s="58"/>
+      <c r="AC95" s="58"/>
       <c r="AN95" s="9">
         <f t="shared" ref="AN95:BG95" si="68">AN87-AN91</f>
         <v>0</v>
@@ -11787,11 +11760,11 @@
       <c r="B96" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="U96" s="65"/>
-      <c r="Y96" s="65"/>
-      <c r="AC96" s="65"/>
+      <c r="M96" s="59"/>
+      <c r="Q96" s="59"/>
+      <c r="U96" s="59"/>
+      <c r="Y96" s="59"/>
+      <c r="AC96" s="59"/>
       <c r="AN96" s="10">
         <f t="shared" ref="AN96:BG96" si="69">AN88-AN92</f>
         <v>0</v>
@@ -11877,11 +11850,11 @@
       <c r="B97" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M97" s="64"/>
-      <c r="Q97" s="64"/>
-      <c r="U97" s="64"/>
-      <c r="Y97" s="64"/>
-      <c r="AC97" s="64"/>
+      <c r="M97" s="58"/>
+      <c r="Q97" s="58"/>
+      <c r="U97" s="58"/>
+      <c r="Y97" s="58"/>
+      <c r="AC97" s="58"/>
       <c r="AN97" s="9">
         <f t="shared" ref="AN97:BG97" si="70">SUM(AN95:AN96)</f>
         <v>0</v>
@@ -11967,11 +11940,11 @@
       <c r="B98" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M98" s="64"/>
-      <c r="Q98" s="64"/>
-      <c r="U98" s="64"/>
-      <c r="Y98" s="64"/>
-      <c r="AC98" s="64"/>
+      <c r="M98" s="58"/>
+      <c r="Q98" s="58"/>
+      <c r="U98" s="58"/>
+      <c r="Y98" s="58"/>
+      <c r="AC98" s="58"/>
       <c r="AW98" s="9">
         <v>50463</v>
       </c>
@@ -12001,11 +11974,11 @@
       <c r="B99" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="64"/>
-      <c r="Q99" s="64"/>
-      <c r="U99" s="64"/>
-      <c r="Y99" s="64"/>
-      <c r="AC99" s="64"/>
+      <c r="M99" s="58"/>
+      <c r="Q99" s="58"/>
+      <c r="U99" s="58"/>
+      <c r="Y99" s="58"/>
+      <c r="AC99" s="58"/>
       <c r="AW99" s="9">
         <v>35040</v>
       </c>
@@ -12035,11 +12008,11 @@
       <c r="B100" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="M100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="U100" s="65"/>
-      <c r="Y100" s="65"/>
-      <c r="AC100" s="65"/>
+      <c r="M100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="U100" s="59"/>
+      <c r="Y100" s="59"/>
+      <c r="AC100" s="59"/>
       <c r="AW100" s="10">
         <v>0</v>
       </c>
@@ -12069,11 +12042,11 @@
       <c r="B101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M101" s="64"/>
-      <c r="Q101" s="64"/>
-      <c r="U101" s="64"/>
-      <c r="Y101" s="64"/>
-      <c r="AC101" s="64"/>
+      <c r="M101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="U101" s="58"/>
+      <c r="Y101" s="58"/>
+      <c r="AC101" s="58"/>
       <c r="AN101" s="9">
         <f t="shared" ref="AN101:BG101" si="71">AN97-SUM(AN98:AN100)</f>
         <v>0</v>
@@ -12169,34 +12142,34 @@
       <c r="J102" s="34"/>
       <c r="K102" s="34"/>
       <c r="L102" s="34"/>
-      <c r="M102" s="67"/>
+      <c r="M102" s="61"/>
       <c r="N102" s="34"/>
       <c r="O102" s="34"/>
       <c r="P102" s="34"/>
-      <c r="Q102" s="67"/>
+      <c r="Q102" s="61"/>
       <c r="R102" s="34"/>
       <c r="S102" s="34"/>
       <c r="T102" s="34"/>
-      <c r="U102" s="67"/>
+      <c r="U102" s="61"/>
       <c r="V102" s="34"/>
       <c r="W102" s="34"/>
       <c r="X102" s="34"/>
-      <c r="Y102" s="67"/>
+      <c r="Y102" s="61"/>
       <c r="Z102" s="34"/>
       <c r="AA102" s="34"/>
       <c r="AB102" s="34"/>
-      <c r="AC102" s="67"/>
+      <c r="AC102" s="61"/>
       <c r="AD102" s="34"/>
     </row>
     <row r="103" spans="2:59" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="U103" s="64"/>
-      <c r="Y103" s="64"/>
-      <c r="AC103" s="64"/>
+      <c r="M103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="U103" s="58"/>
+      <c r="Y103" s="58"/>
+      <c r="AC103" s="58"/>
       <c r="AW103" s="9">
         <v>1032</v>
       </c>
@@ -12226,11 +12199,11 @@
       <c r="B104" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="U104" s="65"/>
-      <c r="Y104" s="65"/>
-      <c r="AC104" s="65"/>
+      <c r="M104" s="59"/>
+      <c r="Q104" s="59"/>
+      <c r="U104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="AC104" s="59"/>
       <c r="AW104" s="10">
         <v>-2589</v>
       </c>
@@ -12261,11 +12234,11 @@
       <c r="B105" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M105" s="64"/>
-      <c r="Q105" s="64"/>
-      <c r="U105" s="64"/>
-      <c r="Y105" s="64"/>
-      <c r="AC105" s="64"/>
+      <c r="M105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="U105" s="58"/>
+      <c r="Y105" s="58"/>
+      <c r="AC105" s="58"/>
       <c r="AN105" s="9">
         <f t="shared" ref="AN105" si="72">AN101+SUM(AN103:AN104)</f>
         <v>0</v>
@@ -12351,11 +12324,11 @@
       <c r="B106" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M106" s="64"/>
-      <c r="Q106" s="64"/>
-      <c r="U106" s="64"/>
-      <c r="Y106" s="64"/>
-      <c r="AC106" s="64"/>
+      <c r="M106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="U106" s="58"/>
+      <c r="Y106" s="58"/>
+      <c r="AC106" s="58"/>
       <c r="AW106" s="9">
         <v>2983</v>
       </c>
@@ -12385,11 +12358,11 @@
       <c r="B107" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M107" s="65"/>
-      <c r="Q107" s="65"/>
-      <c r="U107" s="65"/>
-      <c r="Y107" s="65"/>
-      <c r="AC107" s="65"/>
+      <c r="M107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="U107" s="59"/>
+      <c r="Y107" s="59"/>
+      <c r="AC107" s="59"/>
       <c r="AW107" s="10">
         <v>-138</v>
       </c>
@@ -12419,11 +12392,11 @@
       <c r="B108" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M108" s="64"/>
-      <c r="Q108" s="64"/>
-      <c r="U108" s="64"/>
-      <c r="Y108" s="64"/>
-      <c r="AC108" s="64"/>
+      <c r="M108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="U108" s="58"/>
+      <c r="Y108" s="58"/>
+      <c r="AC108" s="58"/>
       <c r="AN108" s="9">
         <f t="shared" ref="AN108" si="80">AN105-AN106+AN107</f>
         <v>0</v>
@@ -12519,34 +12492,34 @@
       <c r="J109" s="34"/>
       <c r="K109" s="34"/>
       <c r="L109" s="34"/>
-      <c r="M109" s="67"/>
+      <c r="M109" s="61"/>
       <c r="N109" s="34"/>
       <c r="O109" s="34"/>
       <c r="P109" s="34"/>
-      <c r="Q109" s="67"/>
+      <c r="Q109" s="61"/>
       <c r="R109" s="34"/>
       <c r="S109" s="34"/>
       <c r="T109" s="34"/>
-      <c r="U109" s="67"/>
+      <c r="U109" s="61"/>
       <c r="V109" s="34"/>
       <c r="W109" s="34"/>
       <c r="X109" s="34"/>
-      <c r="Y109" s="67"/>
+      <c r="Y109" s="61"/>
       <c r="Z109" s="34"/>
       <c r="AA109" s="34"/>
       <c r="AB109" s="34"/>
-      <c r="AC109" s="67"/>
+      <c r="AC109" s="61"/>
       <c r="AD109" s="34"/>
     </row>
     <row r="110" spans="2:59" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M110" s="65"/>
-      <c r="Q110" s="65"/>
-      <c r="U110" s="65"/>
-      <c r="Y110" s="65"/>
-      <c r="AC110" s="65"/>
+      <c r="M110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="AC110" s="59"/>
       <c r="AW110" s="10">
         <v>-6427</v>
       </c>
@@ -12577,11 +12550,11 @@
       <c r="B111" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M111" s="64"/>
-      <c r="Q111" s="64"/>
-      <c r="U111" s="64"/>
-      <c r="Y111" s="64"/>
-      <c r="AC111" s="64"/>
+      <c r="M111" s="58"/>
+      <c r="Q111" s="58"/>
+      <c r="U111" s="58"/>
+      <c r="Y111" s="58"/>
+      <c r="AC111" s="58"/>
       <c r="AN111" s="9">
         <f t="shared" ref="AN111" si="88">AN110</f>
         <v>0</v>
@@ -12666,11 +12639,11 @@
       <c r="B112" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M112" s="64"/>
-      <c r="Q112" s="64"/>
-      <c r="U112" s="64"/>
-      <c r="Y112" s="64"/>
-      <c r="AC112" s="64"/>
+      <c r="M112" s="58"/>
+      <c r="Q112" s="58"/>
+      <c r="U112" s="58"/>
+      <c r="Y112" s="58"/>
+      <c r="AC112" s="58"/>
       <c r="AN112" s="9">
         <f t="shared" ref="AN112" si="95">AN108+AN111</f>
         <v>0</v>
@@ -12756,11 +12729,11 @@
       <c r="B113" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="U113" s="65"/>
-      <c r="Y113" s="65"/>
-      <c r="AC113" s="65"/>
+      <c r="M113" s="59"/>
+      <c r="Q113" s="59"/>
+      <c r="U113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="AC113" s="59"/>
       <c r="AW113" s="10">
         <v>0</v>
       </c>
@@ -12790,11 +12763,11 @@
       <c r="B114" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M114" s="64"/>
-      <c r="Q114" s="64"/>
-      <c r="U114" s="64"/>
-      <c r="Y114" s="64"/>
-      <c r="AC114" s="64"/>
+      <c r="M114" s="58"/>
+      <c r="Q114" s="58"/>
+      <c r="U114" s="58"/>
+      <c r="Y114" s="58"/>
+      <c r="AC114" s="58"/>
       <c r="AN114" s="9">
         <f t="shared" ref="AN114" si="103">AN112+AN113</f>
         <v>0</v>
@@ -12880,11 +12853,11 @@
       <c r="B115" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="M115" s="68"/>
-      <c r="Q115" s="68"/>
-      <c r="U115" s="68"/>
-      <c r="Y115" s="68"/>
-      <c r="AC115" s="68"/>
+      <c r="M115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="U115" s="62"/>
+      <c r="Y115" s="62"/>
+      <c r="AC115" s="62"/>
       <c r="AN115" s="37" t="e">
         <f t="shared" ref="AN115:AZ115" si="111">AN114/AN117</f>
         <v>#DIV/0!</v>
@@ -12970,11 +12943,11 @@
       <c r="B116" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="M116" s="68"/>
-      <c r="Q116" s="68"/>
-      <c r="U116" s="68"/>
-      <c r="Y116" s="68"/>
-      <c r="AC116" s="68"/>
+      <c r="M116" s="62"/>
+      <c r="Q116" s="62"/>
+      <c r="U116" s="62"/>
+      <c r="Y116" s="62"/>
+      <c r="AC116" s="62"/>
       <c r="AN116" s="37" t="e">
         <f t="shared" ref="AN116:AZ116" si="113">AN114/AN118</f>
         <v>#DIV/0!</v>
@@ -13060,11 +13033,11 @@
       <c r="B117" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M117" s="64"/>
-      <c r="Q117" s="64"/>
-      <c r="U117" s="64"/>
-      <c r="Y117" s="64"/>
-      <c r="AC117" s="64"/>
+      <c r="M117" s="58"/>
+      <c r="Q117" s="58"/>
+      <c r="U117" s="58"/>
+      <c r="Y117" s="58"/>
+      <c r="AC117" s="58"/>
       <c r="AW117" s="9">
         <v>22936.413</v>
       </c>
@@ -13094,11 +13067,11 @@
       <c r="B118" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M118" s="64"/>
-      <c r="Q118" s="64"/>
-      <c r="U118" s="64"/>
-      <c r="Y118" s="64"/>
-      <c r="AC118" s="64"/>
+      <c r="M118" s="58"/>
+      <c r="Q118" s="58"/>
+      <c r="U118" s="58"/>
+      <c r="Y118" s="58"/>
+      <c r="AC118" s="58"/>
       <c r="AW118" s="9">
         <v>23153.492999999999</v>
       </c>
@@ -13125,11 +13098,11 @@
       </c>
     </row>
     <row r="119" spans="2:59" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M119" s="64"/>
-      <c r="Q119" s="64"/>
-      <c r="U119" s="64"/>
-      <c r="Y119" s="64"/>
-      <c r="AC119" s="64"/>
+      <c r="M119" s="58"/>
+      <c r="Q119" s="58"/>
+      <c r="U119" s="58"/>
+      <c r="Y119" s="58"/>
+      <c r="AC119" s="58"/>
     </row>
     <row r="121" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3" t="s">
@@ -13145,23 +13118,23 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="52"/>
+      <c r="M121" s="47"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
-      <c r="Q121" s="52"/>
+      <c r="Q121" s="47"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
-      <c r="U121" s="52"/>
+      <c r="U121" s="47"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
-      <c r="Y121" s="52"/>
+      <c r="Y121" s="47"/>
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
-      <c r="AC121" s="52"/>
+      <c r="AC121" s="47"/>
       <c r="AD121" s="3"/>
     </row>
     <row r="122" spans="2:59" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -13178,23 +13151,23 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="59"/>
+      <c r="M122" s="54"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
-      <c r="Q122" s="59"/>
+      <c r="Q122" s="54"/>
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
-      <c r="U122" s="59"/>
+      <c r="U122" s="54"/>
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
-      <c r="Y122" s="59"/>
+      <c r="Y122" s="54"/>
       <c r="Z122" s="6"/>
       <c r="AA122" s="6"/>
       <c r="AB122" s="6"/>
-      <c r="AC122" s="59"/>
+      <c r="AC122" s="54"/>
       <c r="AD122" s="6"/>
     </row>
     <row r="123" spans="2:59" x14ac:dyDescent="0.35">
@@ -13483,11 +13456,11 @@
       <c r="B129" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M129" s="51"/>
-      <c r="Q129" s="51"/>
-      <c r="U129" s="51"/>
-      <c r="Y129" s="51"/>
-      <c r="AC129" s="51"/>
+      <c r="M129" s="46"/>
+      <c r="Q129" s="46"/>
+      <c r="U129" s="46"/>
+      <c r="Y129" s="46"/>
+      <c r="AC129" s="46"/>
       <c r="AE129" s="10"/>
       <c r="AF129" s="10"/>
       <c r="AG129" s="10"/>
@@ -13641,23 +13614,23 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="59"/>
+      <c r="M131" s="54"/>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
-      <c r="Q131" s="59"/>
+      <c r="Q131" s="54"/>
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
-      <c r="U131" s="59"/>
+      <c r="U131" s="54"/>
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
       <c r="X131" s="6"/>
-      <c r="Y131" s="59"/>
+      <c r="Y131" s="54"/>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
-      <c r="AC131" s="59"/>
+      <c r="AC131" s="54"/>
       <c r="AD131" s="6"/>
       <c r="AE131" s="11"/>
       <c r="AF131" s="11"/>
@@ -13974,11 +13947,11 @@
       <c r="B138" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M138" s="51"/>
-      <c r="Q138" s="51"/>
-      <c r="U138" s="51"/>
-      <c r="Y138" s="51"/>
-      <c r="AC138" s="51"/>
+      <c r="M138" s="46"/>
+      <c r="Q138" s="46"/>
+      <c r="U138" s="46"/>
+      <c r="Y138" s="46"/>
+      <c r="AC138" s="46"/>
       <c r="AE138" s="10"/>
       <c r="AF138" s="10"/>
       <c r="AG138" s="10"/>
@@ -14027,11 +14000,11 @@
       <c r="B139" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="M139" s="69"/>
-      <c r="Q139" s="69"/>
-      <c r="U139" s="69"/>
-      <c r="Y139" s="69"/>
-      <c r="AC139" s="69"/>
+      <c r="M139" s="63"/>
+      <c r="Q139" s="63"/>
+      <c r="U139" s="63"/>
+      <c r="Y139" s="63"/>
+      <c r="AC139" s="63"/>
       <c r="AE139" s="12"/>
       <c r="AF139" s="12"/>
       <c r="AG139" s="12"/>
@@ -14126,11 +14099,11 @@
       <c r="B140" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="M140" s="70"/>
-      <c r="Q140" s="70"/>
-      <c r="U140" s="70"/>
-      <c r="Y140" s="70"/>
-      <c r="AC140" s="70"/>
+      <c r="M140" s="64"/>
+      <c r="Q140" s="64"/>
+      <c r="U140" s="64"/>
+      <c r="Y140" s="64"/>
+      <c r="AC140" s="64"/>
       <c r="AE140" s="28"/>
       <c r="AF140" s="28"/>
       <c r="AG140" s="28"/>
@@ -14235,23 +14208,23 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
-      <c r="M141" s="59"/>
+      <c r="M141" s="54"/>
       <c r="N141" s="6"/>
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
-      <c r="Q141" s="59"/>
+      <c r="Q141" s="54"/>
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
-      <c r="U141" s="59"/>
+      <c r="U141" s="54"/>
       <c r="V141" s="6"/>
       <c r="W141" s="6"/>
       <c r="X141" s="6"/>
-      <c r="Y141" s="59"/>
+      <c r="Y141" s="54"/>
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
-      <c r="AC141" s="59"/>
+      <c r="AC141" s="54"/>
       <c r="AD141" s="6"/>
       <c r="AE141" s="11"/>
       <c r="AF141" s="11"/>
@@ -14568,11 +14541,11 @@
       <c r="B148" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M148" s="51"/>
-      <c r="Q148" s="51"/>
-      <c r="U148" s="51"/>
-      <c r="Y148" s="51"/>
-      <c r="AC148" s="51"/>
+      <c r="M148" s="46"/>
+      <c r="Q148" s="46"/>
+      <c r="U148" s="46"/>
+      <c r="Y148" s="46"/>
+      <c r="AC148" s="46"/>
       <c r="AE148" s="10"/>
       <c r="AF148" s="10"/>
       <c r="AG148" s="10"/>
@@ -14716,11 +14689,11 @@
       <c r="B150" s="35" t="s">
         <v>880</v>
       </c>
-      <c r="M150" s="71"/>
-      <c r="Q150" s="71"/>
-      <c r="U150" s="71"/>
-      <c r="Y150" s="71"/>
-      <c r="AC150" s="71"/>
+      <c r="M150" s="65"/>
+      <c r="Q150" s="65"/>
+      <c r="U150" s="65"/>
+      <c r="Y150" s="65"/>
+      <c r="AC150" s="65"/>
       <c r="AE150" s="36"/>
       <c r="AF150" s="36"/>
       <c r="AG150" s="36"/>
@@ -14945,11 +14918,11 @@
       <c r="B155" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M155" s="51"/>
-      <c r="Q155" s="51"/>
-      <c r="U155" s="51"/>
-      <c r="Y155" s="51"/>
-      <c r="AC155" s="51"/>
+      <c r="M155" s="46"/>
+      <c r="Q155" s="46"/>
+      <c r="U155" s="46"/>
+      <c r="Y155" s="46"/>
+      <c r="AC155" s="46"/>
       <c r="AE155" s="10"/>
       <c r="AF155" s="10"/>
       <c r="AG155" s="10"/>
@@ -14997,11 +14970,11 @@
       <c r="B156" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="M156" s="69"/>
-      <c r="Q156" s="69"/>
-      <c r="U156" s="69"/>
-      <c r="Y156" s="69"/>
-      <c r="AC156" s="69"/>
+      <c r="M156" s="63"/>
+      <c r="Q156" s="63"/>
+      <c r="U156" s="63"/>
+      <c r="Y156" s="63"/>
+      <c r="AC156" s="63"/>
       <c r="AE156" s="12"/>
       <c r="AF156" s="12"/>
       <c r="AG156" s="12"/>
@@ -15096,11 +15069,11 @@
       <c r="B157" s="29" t="s">
         <v>879</v>
       </c>
-      <c r="M157" s="70"/>
-      <c r="Q157" s="70"/>
-      <c r="U157" s="70"/>
-      <c r="Y157" s="70"/>
-      <c r="AC157" s="70"/>
+      <c r="M157" s="64"/>
+      <c r="Q157" s="64"/>
+      <c r="U157" s="64"/>
+      <c r="Y157" s="64"/>
+      <c r="AC157" s="64"/>
       <c r="AE157" s="28"/>
       <c r="AF157" s="28"/>
       <c r="AG157" s="28"/>
@@ -15205,23 +15178,23 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="59"/>
+      <c r="M158" s="54"/>
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
-      <c r="Q158" s="59"/>
+      <c r="Q158" s="54"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
       <c r="T158" s="6"/>
-      <c r="U158" s="59"/>
+      <c r="U158" s="54"/>
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
       <c r="X158" s="6"/>
-      <c r="Y158" s="59"/>
+      <c r="Y158" s="54"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
       <c r="AB158" s="6"/>
-      <c r="AC158" s="59"/>
+      <c r="AC158" s="54"/>
       <c r="AD158" s="6"/>
       <c r="AE158" s="11"/>
       <c r="AF158" s="11"/>
@@ -15491,11 +15464,11 @@
       <c r="B164" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M164" s="51"/>
-      <c r="Q164" s="51"/>
-      <c r="U164" s="51"/>
-      <c r="Y164" s="51"/>
-      <c r="AC164" s="51"/>
+      <c r="M164" s="46"/>
+      <c r="Q164" s="46"/>
+      <c r="U164" s="46"/>
+      <c r="Y164" s="46"/>
+      <c r="AC164" s="46"/>
       <c r="AE164" s="10"/>
       <c r="AF164" s="10"/>
       <c r="AG164" s="10"/>
@@ -15637,11 +15610,11 @@
       <c r="B166" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M166" s="51"/>
-      <c r="Q166" s="51"/>
-      <c r="U166" s="51"/>
-      <c r="Y166" s="51"/>
-      <c r="AC166" s="51"/>
+      <c r="M166" s="46"/>
+      <c r="Q166" s="46"/>
+      <c r="U166" s="46"/>
+      <c r="Y166" s="46"/>
+      <c r="AC166" s="46"/>
       <c r="AE166" s="10"/>
       <c r="AF166" s="10"/>
       <c r="AG166" s="10"/>
@@ -15689,11 +15662,11 @@
       <c r="B167" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="M167" s="72"/>
-      <c r="Q167" s="72"/>
-      <c r="U167" s="72"/>
-      <c r="Y167" s="72"/>
-      <c r="AC167" s="72"/>
+      <c r="M167" s="66"/>
+      <c r="Q167" s="66"/>
+      <c r="U167" s="66"/>
+      <c r="Y167" s="66"/>
+      <c r="AC167" s="66"/>
       <c r="AE167" s="40"/>
       <c r="AF167" s="40"/>
       <c r="AG167" s="40"/>
@@ -15788,11 +15761,11 @@
       <c r="B168" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M168" s="66"/>
-      <c r="Q168" s="66"/>
-      <c r="U168" s="66"/>
-      <c r="Y168" s="66"/>
-      <c r="AC168" s="66"/>
+      <c r="M168" s="60"/>
+      <c r="Q168" s="60"/>
+      <c r="U168" s="60"/>
+      <c r="Y168" s="60"/>
+      <c r="AC168" s="60"/>
       <c r="AN168" s="28">
         <f t="shared" ref="AN168" si="151">AN167+AN157</f>
         <v>0</v>
@@ -15888,34 +15861,34 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-      <c r="M169" s="52"/>
+      <c r="M169" s="47"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
-      <c r="Q169" s="52"/>
+      <c r="Q169" s="47"/>
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
-      <c r="U169" s="52"/>
+      <c r="U169" s="47"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
-      <c r="Y169" s="52"/>
+      <c r="Y169" s="47"/>
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
-      <c r="AC169" s="52"/>
+      <c r="AC169" s="47"/>
       <c r="AD169" s="3"/>
     </row>
     <row r="170" spans="2:59" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B170" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="M170" s="64"/>
-      <c r="Q170" s="64"/>
-      <c r="U170" s="64"/>
-      <c r="Y170" s="64"/>
-      <c r="AC170" s="64"/>
+      <c r="M170" s="58"/>
+      <c r="Q170" s="58"/>
+      <c r="U170" s="58"/>
+      <c r="Y170" s="58"/>
+      <c r="AC170" s="58"/>
       <c r="AW170" s="9">
         <v>6047</v>
       </c>
@@ -15945,11 +15918,11 @@
       <c r="B171" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M171" s="65"/>
-      <c r="Q171" s="65"/>
-      <c r="U171" s="65"/>
-      <c r="Y171" s="65"/>
-      <c r="AC171" s="65"/>
+      <c r="M171" s="59"/>
+      <c r="Q171" s="59"/>
+      <c r="U171" s="59"/>
+      <c r="Y171" s="59"/>
+      <c r="AC171" s="59"/>
       <c r="AW171" s="10">
         <v>-6121</v>
       </c>
@@ -15980,11 +15953,11 @@
       <c r="B172" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M172" s="64"/>
-      <c r="Q172" s="64"/>
-      <c r="U172" s="64"/>
-      <c r="Y172" s="64"/>
-      <c r="AC172" s="64"/>
+      <c r="M172" s="58"/>
+      <c r="Q172" s="58"/>
+      <c r="U172" s="58"/>
+      <c r="Y172" s="58"/>
+      <c r="AC172" s="58"/>
       <c r="AN172" s="9">
         <f t="shared" ref="AN172" si="159">AN170+AN171</f>
         <v>0</v>
@@ -16070,11 +16043,11 @@
       <c r="B174" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="M174" s="64"/>
-      <c r="Q174" s="64"/>
-      <c r="U174" s="64"/>
-      <c r="Y174" s="64"/>
-      <c r="AC174" s="64"/>
+      <c r="M174" s="58"/>
+      <c r="Q174" s="58"/>
+      <c r="U174" s="58"/>
+      <c r="Y174" s="58"/>
+      <c r="AC174" s="58"/>
       <c r="AW174" s="9">
         <v>0</v>
       </c>
@@ -16104,11 +16077,11 @@
       <c r="B175" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="M175" s="64"/>
-      <c r="Q175" s="64"/>
-      <c r="U175" s="64"/>
-      <c r="Y175" s="64"/>
-      <c r="AC175" s="64"/>
+      <c r="M175" s="58"/>
+      <c r="Q175" s="58"/>
+      <c r="U175" s="58"/>
+      <c r="Y175" s="58"/>
+      <c r="AC175" s="58"/>
       <c r="AW175" s="9">
         <v>4002</v>
       </c>
@@ -16138,11 +16111,11 @@
       <c r="B176" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="M176" s="64"/>
-      <c r="Q176" s="64"/>
-      <c r="U176" s="64"/>
-      <c r="Y176" s="64"/>
-      <c r="AC176" s="64"/>
+      <c r="M176" s="58"/>
+      <c r="Q176" s="58"/>
+      <c r="U176" s="58"/>
+      <c r="Y176" s="58"/>
+      <c r="AC176" s="58"/>
       <c r="AW176" s="9">
         <v>0</v>
       </c>
@@ -16172,11 +16145,11 @@
       <c r="B177" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="M177" s="64"/>
-      <c r="Q177" s="64"/>
-      <c r="U177" s="64"/>
-      <c r="Y177" s="64"/>
-      <c r="AC177" s="64"/>
+      <c r="M177" s="58"/>
+      <c r="Q177" s="58"/>
+      <c r="U177" s="58"/>
+      <c r="Y177" s="58"/>
+      <c r="AC177" s="58"/>
       <c r="AW177" s="9">
         <v>-3756</v>
       </c>
@@ -16206,11 +16179,11 @@
       <c r="B179" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M179" s="52"/>
-      <c r="Q179" s="52"/>
-      <c r="U179" s="52"/>
-      <c r="Y179" s="52"/>
-      <c r="AC179" s="52"/>
+      <c r="M179" s="47"/>
+      <c r="Q179" s="47"/>
+      <c r="U179" s="47"/>
+      <c r="Y179" s="47"/>
+      <c r="AC179" s="47"/>
     </row>
     <row r="180" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
@@ -16246,11 +16219,11 @@
       <c r="B187" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="M187" s="52"/>
-      <c r="Q187" s="52"/>
-      <c r="U187" s="52"/>
-      <c r="Y187" s="52"/>
-      <c r="AC187" s="52"/>
+      <c r="M187" s="47"/>
+      <c r="Q187" s="47"/>
+      <c r="U187" s="47"/>
+      <c r="Y187" s="47"/>
+      <c r="AC187" s="47"/>
     </row>
     <row r="188" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
@@ -16271,11 +16244,11 @@
       <c r="B193" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="M193" s="52"/>
-      <c r="Q193" s="52"/>
-      <c r="U193" s="52"/>
-      <c r="Y193" s="52"/>
-      <c r="AC193" s="52"/>
+      <c r="M193" s="47"/>
+      <c r="Q193" s="47"/>
+      <c r="U193" s="47"/>
+      <c r="Y193" s="47"/>
+      <c r="AC193" s="47"/>
     </row>
     <row r="194" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
